--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Acc-master\Acc-master\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26542A91-79DC-4497-A98C-523228BD1DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744ACB90-7C25-4FC8-BF26-9A2B687BFD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="954" activeTab="4" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="954" firstSheet="36" activeTab="46" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="AccessWeb" sheetId="53" r:id="rId1"/>
@@ -20,50 +20,52 @@
     <sheet name="Audit Logs" sheetId="47" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="50" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="51" r:id="rId7"/>
-    <sheet name="ChangePasswd" sheetId="46" r:id="rId8"/>
-    <sheet name="AppComposerNew" sheetId="44" r:id="rId9"/>
-    <sheet name="AppComposer" sheetId="45" r:id="rId10"/>
-    <sheet name="FilesTableCols " sheetId="43" r:id="rId11"/>
-    <sheet name="FileViewer2020.4" sheetId="41" r:id="rId12"/>
-    <sheet name="ManageBookMark" sheetId="40" r:id="rId13"/>
-    <sheet name="2020.4" sheetId="39" r:id="rId14"/>
-    <sheet name="FileViewerJobs" sheetId="37" r:id="rId15"/>
-    <sheet name="Generic_Actions" sheetId="36" r:id="rId16"/>
-    <sheet name="Access_Management" sheetId="32" r:id="rId17"/>
-    <sheet name="Preferences" sheetId="33" r:id="rId18"/>
-    <sheet name="JobsTableCols" sheetId="29" r:id="rId19"/>
-    <sheet name="Cluster_Registration" sheetId="28" r:id="rId20"/>
-    <sheet name="JobDetails" sheetId="30" r:id="rId21"/>
-    <sheet name="JobMonitoringGeneric" sheetId="27" r:id="rId22"/>
-    <sheet name="ViewDetailsForNonOwner" sheetId="23" r:id="rId23"/>
-    <sheet name="ProfileSubmissions" sheetId="21" r:id="rId24"/>
-    <sheet name="ProfileOperations" sheetId="14" r:id="rId25"/>
-    <sheet name="JobAction" sheetId="5" r:id="rId26"/>
-    <sheet name="JobArrayAction" sheetId="31" r:id="rId27"/>
-    <sheet name="JobActionNotJobOwner" sheetId="20" r:id="rId28"/>
-    <sheet name="JobActionIcon" sheetId="18" r:id="rId29"/>
-    <sheet name="JobActionIconNotJobOwner" sheetId="24" r:id="rId30"/>
-    <sheet name="JS-Latest" sheetId="16" r:id="rId31"/>
-    <sheet name="BookMarks" sheetId="17" r:id="rId32"/>
-    <sheet name="JobSubmission-Folder operations" sheetId="12" r:id="rId33"/>
-    <sheet name="FolderOperations" sheetId="11" r:id="rId34"/>
-    <sheet name="JobSubmission-File operations" sheetId="13" r:id="rId35"/>
-    <sheet name="FileTab_GenericTC" sheetId="42" r:id="rId36"/>
-    <sheet name="FileOperations" sheetId="9" r:id="rId37"/>
-    <sheet name="LoginData" sheetId="1" r:id="rId38"/>
-    <sheet name="JobFilters" sheetId="8" r:id="rId39"/>
-    <sheet name="FileViewerOps" sheetId="15" r:id="rId40"/>
-    <sheet name="CreateFolder" sheetId="2" r:id="rId41"/>
-    <sheet name="CreateFile" sheetId="3" r:id="rId42"/>
-    <sheet name="CompletedJobsFolder" sheetId="7" r:id="rId43"/>
-    <sheet name="TestDataAccessNew" sheetId="52" r:id="rId44"/>
-    <sheet name="RunningFolder" sheetId="6" r:id="rId45"/>
-    <sheet name="JobFiltersSavedFilters" sheetId="19" r:id="rId46"/>
+    <sheet name="Sheet3" sheetId="54" r:id="rId8"/>
+    <sheet name="ChangePasswd" sheetId="46" r:id="rId9"/>
+    <sheet name="AppComposerNew" sheetId="44" r:id="rId10"/>
+    <sheet name="AppComposer" sheetId="45" r:id="rId11"/>
+    <sheet name="FilesTableCols " sheetId="43" r:id="rId12"/>
+    <sheet name="FileViewer2020.4" sheetId="41" r:id="rId13"/>
+    <sheet name="ManageBookMark" sheetId="40" r:id="rId14"/>
+    <sheet name="2020.4" sheetId="39" r:id="rId15"/>
+    <sheet name="FileViewerJobs" sheetId="37" r:id="rId16"/>
+    <sheet name="Generic_Actions" sheetId="36" r:id="rId17"/>
+    <sheet name="Access_Management" sheetId="32" r:id="rId18"/>
+    <sheet name="Preferences" sheetId="33" r:id="rId19"/>
+    <sheet name="JobsTableCols" sheetId="29" r:id="rId20"/>
+    <sheet name="Cluster_Registration" sheetId="28" r:id="rId21"/>
+    <sheet name="JobDetails" sheetId="30" r:id="rId22"/>
+    <sheet name="JobMonitoringGeneric" sheetId="27" r:id="rId23"/>
+    <sheet name="ViewDetailsForNonOwner" sheetId="23" r:id="rId24"/>
+    <sheet name="ProfileSubmissions" sheetId="21" r:id="rId25"/>
+    <sheet name="ProfileOperations" sheetId="14" r:id="rId26"/>
+    <sheet name="JobAction" sheetId="5" r:id="rId27"/>
+    <sheet name="JobArrayAction" sheetId="31" r:id="rId28"/>
+    <sheet name="JobActionNotJobOwner" sheetId="20" r:id="rId29"/>
+    <sheet name="JobActionIcon" sheetId="18" r:id="rId30"/>
+    <sheet name="JobActionIconNotJobOwner" sheetId="24" r:id="rId31"/>
+    <sheet name="JS-Latest" sheetId="16" r:id="rId32"/>
+    <sheet name="BookMarks" sheetId="17" r:id="rId33"/>
+    <sheet name="JobSubmission-Folder operations" sheetId="12" r:id="rId34"/>
+    <sheet name="FolderOperations" sheetId="11" r:id="rId35"/>
+    <sheet name="JobSubmission-File operations" sheetId="13" r:id="rId36"/>
+    <sheet name="FileTab_GenericTC" sheetId="42" r:id="rId37"/>
+    <sheet name="FileOperations" sheetId="9" r:id="rId38"/>
+    <sheet name="LoginData" sheetId="1" r:id="rId39"/>
+    <sheet name="JobFilters" sheetId="8" r:id="rId40"/>
+    <sheet name="FileViewerOps" sheetId="15" r:id="rId41"/>
+    <sheet name="CreateFolder" sheetId="2" r:id="rId42"/>
+    <sheet name="CreateFile" sheetId="3" r:id="rId43"/>
+    <sheet name="CompletedJobsFolder" sheetId="7" r:id="rId44"/>
+    <sheet name="TestDataAccessNew" sheetId="52" r:id="rId45"/>
+    <sheet name="RunningFolder" sheetId="6" r:id="rId46"/>
+    <sheet name="FileUpload" sheetId="55" r:id="rId47"/>
+    <sheet name="JobFiltersSavedFilters" sheetId="19" r:id="rId48"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">'JS-Latest'!$A$1:$G$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">ProfileOperations!$A$1:$G$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">ProfileSubmissions!$A$1:$G$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">'JS-Latest'!$A$1:$G$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">ProfileOperations!$A$1:$G$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">ProfileSubmissions!$A$1:$G$30</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -81,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3441" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="1151">
   <si>
     <t>username</t>
   </si>
@@ -3506,6 +3508,36 @@
   </si>
   <si>
     <t>samita1</t>
+  </si>
+  <si>
+    <t>Verify that when a folder is uploaded - successful notification is displayed</t>
+  </si>
+  <si>
+    <t>FileUpload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List View::Folder upload in Files Section - Verify that user is able to choose a folder while uploading </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tile View ::Folder upload in Files Section - Verify that user is able to choose a folder while uploading </t>
+  </si>
+  <si>
+    <t>InputFolder</t>
+  </si>
+  <si>
+    <t>Ops</t>
+  </si>
+  <si>
+    <t>JSUpload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that when a folder is uploaded - successful notification is displayed In Jobsubmission -JSF section </t>
+  </si>
+  <si>
+    <t>Verify that when a folder is uploaded - successful notification is displayed In Jobs section-Running Folder</t>
+  </si>
+  <si>
+    <t>Verify that when a folder is uploaded by  context menu - successful notification is displayed In Jobs section-Running Folder</t>
   </si>
 </sst>
 </file>
@@ -4150,6 +4182,310 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A529B9-903C-45A2-901F-9D341955071D}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="89.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C2" t="s">
+        <v>950</v>
+      </c>
+      <c r="D2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>951</v>
+      </c>
+      <c r="B3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>953</v>
+      </c>
+      <c r="B4" t="s">
+        <v>954</v>
+      </c>
+      <c r="C4" t="s">
+        <v>955</v>
+      </c>
+      <c r="D4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>956</v>
+      </c>
+      <c r="B5" t="s">
+        <v>957</v>
+      </c>
+      <c r="C5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>958</v>
+      </c>
+      <c r="B6" t="s">
+        <v>959</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>741</v>
+      </c>
+      <c r="D6" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>960</v>
+      </c>
+      <c r="B7" t="s">
+        <v>961</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>962</v>
+      </c>
+      <c r="D7" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>963</v>
+      </c>
+      <c r="B8" t="s">
+        <v>964</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>962</v>
+      </c>
+      <c r="D8" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>965</v>
+      </c>
+      <c r="B9" t="s">
+        <v>966</v>
+      </c>
+      <c r="C9" t="s">
+        <v>967</v>
+      </c>
+      <c r="D9" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>968</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>969</v>
+      </c>
+      <c r="D10" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>970</v>
+      </c>
+      <c r="B11" t="s">
+        <v>971</v>
+      </c>
+      <c r="C11" t="s">
+        <v>972</v>
+      </c>
+      <c r="D11" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>973</v>
+      </c>
+      <c r="B12" t="s">
+        <v>974</v>
+      </c>
+      <c r="C12" t="s">
+        <v>974</v>
+      </c>
+      <c r="D12" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>975</v>
+      </c>
+      <c r="B13" t="s">
+        <v>976</v>
+      </c>
+      <c r="C13" t="s">
+        <v>972</v>
+      </c>
+      <c r="D13" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>977</v>
+      </c>
+      <c r="B14" t="s">
+        <v>978</v>
+      </c>
+      <c r="C14" t="s">
+        <v>979</v>
+      </c>
+      <c r="D14" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>980</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>981</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>962</v>
+      </c>
+      <c r="D16" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>982</v>
+      </c>
+      <c r="B17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" t="s">
+        <v>983</v>
+      </c>
+      <c r="D17" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>984</v>
+      </c>
+      <c r="B18" t="s">
+        <v>985</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>979</v>
+      </c>
+      <c r="D18" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>986</v>
+      </c>
+      <c r="B19" t="s">
+        <v>987</v>
+      </c>
+      <c r="C19" t="s">
+        <v>987</v>
+      </c>
+      <c r="D19" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>988</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>987</v>
+      </c>
+      <c r="D20" t="s">
+        <v>717</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{0BDD38D8-2559-4808-96F6-AF1B036AFB43}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E2CB3A-76BE-454A-8CED-01A84C1CCF2F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -4385,7 +4721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3050C8-3A8D-4DE1-9C22-09145670512E}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -4631,7 +4967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8004406F-9BB5-44CC-B5FD-6AB51EA63268}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -4710,7 +5046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDEB086-7FEB-4B39-87A9-1F088DACEF5D}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4902,7 +5238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F523F3BF-8164-44E1-977A-66026445142F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -4955,7 +5291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4567093D-A8D5-4E03-9534-579CE219E49C}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -5300,7 +5636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B5724D-5463-4FCF-A4F1-F5DFAB6E3F70}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -5362,7 +5698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DC2C27-8A96-4A23-BB21-23846DE78349}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -5660,7 +5996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484BDA10-16FC-473B-B01F-8455443B2C0A}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -5811,532 +6147,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE8C224-BA72-4C4C-B7BF-5463A9EB02C3}">
-  <dimension ref="A1:F25"/>
-  <sheetViews>
-    <sheetView topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="64.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B2" t="s">
-        <v>596</v>
-      </c>
-      <c r="C2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D2" t="s">
-        <v>598</v>
-      </c>
-      <c r="E2" t="s">
-        <v>440</v>
-      </c>
-      <c r="F2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>441</v>
-      </c>
-      <c r="B3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C3" t="s">
-        <v>425</v>
-      </c>
-      <c r="D3" t="s">
-        <v>426</v>
-      </c>
-      <c r="E3" t="s">
-        <v>440</v>
-      </c>
-      <c r="F3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>442</v>
-      </c>
-      <c r="B4" t="s">
-        <v>427</v>
-      </c>
-      <c r="C4" t="s">
-        <v>428</v>
-      </c>
-      <c r="D4" t="s">
-        <v>429</v>
-      </c>
-      <c r="E4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F4" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>443</v>
-      </c>
-      <c r="B5" t="s">
-        <v>430</v>
-      </c>
-      <c r="C5" t="s">
-        <v>431</v>
-      </c>
-      <c r="D5" t="s">
-        <v>432</v>
-      </c>
-      <c r="E5" t="s">
-        <v>440</v>
-      </c>
-      <c r="F5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>444</v>
-      </c>
-      <c r="B6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C6" t="s">
-        <v>433</v>
-      </c>
-      <c r="D6" t="s">
-        <v>434</v>
-      </c>
-      <c r="E6" t="s">
-        <v>440</v>
-      </c>
-      <c r="F6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>445</v>
-      </c>
-      <c r="B7" t="s">
-        <v>435</v>
-      </c>
-      <c r="C7" t="s">
-        <v>436</v>
-      </c>
-      <c r="D7" t="s">
-        <v>437</v>
-      </c>
-      <c r="E7" t="s">
-        <v>440</v>
-      </c>
-      <c r="F7" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>446</v>
-      </c>
-      <c r="B8" t="s">
-        <v>597</v>
-      </c>
-      <c r="C8" t="s">
-        <v>438</v>
-      </c>
-      <c r="D8" t="s">
-        <v>439</v>
-      </c>
-      <c r="E8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F8" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>640</v>
-      </c>
-      <c r="B9" t="s">
-        <v>650</v>
-      </c>
-      <c r="C9" t="s">
-        <v>803</v>
-      </c>
-      <c r="D9" t="s">
-        <v>804</v>
-      </c>
-      <c r="E9" t="s">
-        <v>440</v>
-      </c>
-      <c r="F9" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>641</v>
-      </c>
-      <c r="B10" t="s">
-        <v>651</v>
-      </c>
-      <c r="C10" t="s">
-        <v>805</v>
-      </c>
-      <c r="D10" t="s">
-        <v>806</v>
-      </c>
-      <c r="E10" t="s">
-        <v>440</v>
-      </c>
-      <c r="F10" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>642</v>
-      </c>
-      <c r="B11" t="s">
-        <v>653</v>
-      </c>
-      <c r="C11" t="s">
-        <v>801</v>
-      </c>
-      <c r="D11" t="s">
-        <v>802</v>
-      </c>
-      <c r="E11" t="s">
-        <v>440</v>
-      </c>
-      <c r="F11" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>643</v>
-      </c>
-      <c r="B12" t="s">
-        <v>652</v>
-      </c>
-      <c r="C12" t="s">
-        <v>799</v>
-      </c>
-      <c r="D12" t="s">
-        <v>800</v>
-      </c>
-      <c r="E12" t="s">
-        <v>440</v>
-      </c>
-      <c r="F12" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>644</v>
-      </c>
-      <c r="B13" t="s">
-        <v>654</v>
-      </c>
-      <c r="C13" t="s">
-        <v>796</v>
-      </c>
-      <c r="D13" t="s">
-        <v>797</v>
-      </c>
-      <c r="E13" t="s">
-        <v>440</v>
-      </c>
-      <c r="F13" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>478</v>
-      </c>
-      <c r="B14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" t="s">
-        <v>422</v>
-      </c>
-      <c r="D14" t="s">
-        <v>598</v>
-      </c>
-      <c r="E14" t="s">
-        <v>251</v>
-      </c>
-      <c r="F14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>479</v>
-      </c>
-      <c r="B15" t="s">
-        <v>424</v>
-      </c>
-      <c r="C15" t="s">
-        <v>425</v>
-      </c>
-      <c r="D15" t="s">
-        <v>426</v>
-      </c>
-      <c r="E15" t="s">
-        <v>251</v>
-      </c>
-      <c r="F15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>480</v>
-      </c>
-      <c r="B16" t="s">
-        <v>427</v>
-      </c>
-      <c r="C16" t="s">
-        <v>428</v>
-      </c>
-      <c r="D16" t="s">
-        <v>429</v>
-      </c>
-      <c r="E16" t="s">
-        <v>251</v>
-      </c>
-      <c r="F16" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>481</v>
-      </c>
-      <c r="B17" t="s">
-        <v>430</v>
-      </c>
-      <c r="C17" t="s">
-        <v>431</v>
-      </c>
-      <c r="D17" t="s">
-        <v>432</v>
-      </c>
-      <c r="E17" t="s">
-        <v>251</v>
-      </c>
-      <c r="F17" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>482</v>
-      </c>
-      <c r="B18" t="s">
-        <v>269</v>
-      </c>
-      <c r="C18" t="s">
-        <v>433</v>
-      </c>
-      <c r="D18" t="s">
-        <v>434</v>
-      </c>
-      <c r="E18" t="s">
-        <v>251</v>
-      </c>
-      <c r="F18" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>483</v>
-      </c>
-      <c r="B19" t="s">
-        <v>435</v>
-      </c>
-      <c r="C19" t="s">
-        <v>436</v>
-      </c>
-      <c r="D19" t="s">
-        <v>437</v>
-      </c>
-      <c r="E19" t="s">
-        <v>251</v>
-      </c>
-      <c r="F19" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>484</v>
-      </c>
-      <c r="B20" t="s">
-        <v>597</v>
-      </c>
-      <c r="C20" t="s">
-        <v>438</v>
-      </c>
-      <c r="D20" t="s">
-        <v>439</v>
-      </c>
-      <c r="E20" t="s">
-        <v>251</v>
-      </c>
-      <c r="F20" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>645</v>
-      </c>
-      <c r="B21" t="s">
-        <v>650</v>
-      </c>
-      <c r="C21" t="s">
-        <v>803</v>
-      </c>
-      <c r="D21" t="s">
-        <v>804</v>
-      </c>
-      <c r="E21" t="s">
-        <v>251</v>
-      </c>
-      <c r="F21" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>646</v>
-      </c>
-      <c r="B22" t="s">
-        <v>651</v>
-      </c>
-      <c r="C22" t="s">
-        <v>805</v>
-      </c>
-      <c r="D22" t="s">
-        <v>806</v>
-      </c>
-      <c r="E22" t="s">
-        <v>251</v>
-      </c>
-      <c r="F22" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>648</v>
-      </c>
-      <c r="B23" t="s">
-        <v>653</v>
-      </c>
-      <c r="C23" t="s">
-        <v>801</v>
-      </c>
-      <c r="D23" t="s">
-        <v>802</v>
-      </c>
-      <c r="E23" t="s">
-        <v>251</v>
-      </c>
-      <c r="F23" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>647</v>
-      </c>
-      <c r="B24" t="s">
-        <v>652</v>
-      </c>
-      <c r="C24" t="s">
-        <v>799</v>
-      </c>
-      <c r="D24" t="s">
-        <v>800</v>
-      </c>
-      <c r="E24" t="s">
-        <v>251</v>
-      </c>
-      <c r="F24" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>649</v>
-      </c>
-      <c r="B25" t="s">
-        <v>654</v>
-      </c>
-      <c r="C25" t="s">
-        <v>796</v>
-      </c>
-      <c r="D25" t="s">
-        <v>797</v>
-      </c>
-      <c r="E25" t="s">
-        <v>251</v>
-      </c>
-      <c r="F25" t="s">
-        <v>798</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{31EAF8A3-E659-4538-97F0-CAE30590E5F4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6516,6 +6326,532 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE8C224-BA72-4C4C-B7BF-5463A9EB02C3}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="64.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2" t="s">
+        <v>598</v>
+      </c>
+      <c r="E2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E6" t="s">
+        <v>440</v>
+      </c>
+      <c r="F6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B8" t="s">
+        <v>597</v>
+      </c>
+      <c r="C8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D8" t="s">
+        <v>439</v>
+      </c>
+      <c r="E8" t="s">
+        <v>440</v>
+      </c>
+      <c r="F8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>640</v>
+      </c>
+      <c r="B9" t="s">
+        <v>650</v>
+      </c>
+      <c r="C9" t="s">
+        <v>803</v>
+      </c>
+      <c r="D9" t="s">
+        <v>804</v>
+      </c>
+      <c r="E9" t="s">
+        <v>440</v>
+      </c>
+      <c r="F9" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>641</v>
+      </c>
+      <c r="B10" t="s">
+        <v>651</v>
+      </c>
+      <c r="C10" t="s">
+        <v>805</v>
+      </c>
+      <c r="D10" t="s">
+        <v>806</v>
+      </c>
+      <c r="E10" t="s">
+        <v>440</v>
+      </c>
+      <c r="F10" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>642</v>
+      </c>
+      <c r="B11" t="s">
+        <v>653</v>
+      </c>
+      <c r="C11" t="s">
+        <v>801</v>
+      </c>
+      <c r="D11" t="s">
+        <v>802</v>
+      </c>
+      <c r="E11" t="s">
+        <v>440</v>
+      </c>
+      <c r="F11" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>643</v>
+      </c>
+      <c r="B12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C12" t="s">
+        <v>799</v>
+      </c>
+      <c r="D12" t="s">
+        <v>800</v>
+      </c>
+      <c r="E12" t="s">
+        <v>440</v>
+      </c>
+      <c r="F12" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>644</v>
+      </c>
+      <c r="B13" t="s">
+        <v>654</v>
+      </c>
+      <c r="C13" t="s">
+        <v>796</v>
+      </c>
+      <c r="D13" t="s">
+        <v>797</v>
+      </c>
+      <c r="E13" t="s">
+        <v>440</v>
+      </c>
+      <c r="F13" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>478</v>
+      </c>
+      <c r="B14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" t="s">
+        <v>422</v>
+      </c>
+      <c r="D14" t="s">
+        <v>598</v>
+      </c>
+      <c r="E14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>479</v>
+      </c>
+      <c r="B15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C15" t="s">
+        <v>425</v>
+      </c>
+      <c r="D15" t="s">
+        <v>426</v>
+      </c>
+      <c r="E15" t="s">
+        <v>251</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>480</v>
+      </c>
+      <c r="B16" t="s">
+        <v>427</v>
+      </c>
+      <c r="C16" t="s">
+        <v>428</v>
+      </c>
+      <c r="D16" t="s">
+        <v>429</v>
+      </c>
+      <c r="E16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>481</v>
+      </c>
+      <c r="B17" t="s">
+        <v>430</v>
+      </c>
+      <c r="C17" t="s">
+        <v>431</v>
+      </c>
+      <c r="D17" t="s">
+        <v>432</v>
+      </c>
+      <c r="E17" t="s">
+        <v>251</v>
+      </c>
+      <c r="F17" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>482</v>
+      </c>
+      <c r="B18" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D18" t="s">
+        <v>434</v>
+      </c>
+      <c r="E18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>483</v>
+      </c>
+      <c r="B19" t="s">
+        <v>435</v>
+      </c>
+      <c r="C19" t="s">
+        <v>436</v>
+      </c>
+      <c r="D19" t="s">
+        <v>437</v>
+      </c>
+      <c r="E19" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>484</v>
+      </c>
+      <c r="B20" t="s">
+        <v>597</v>
+      </c>
+      <c r="C20" t="s">
+        <v>438</v>
+      </c>
+      <c r="D20" t="s">
+        <v>439</v>
+      </c>
+      <c r="E20" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>645</v>
+      </c>
+      <c r="B21" t="s">
+        <v>650</v>
+      </c>
+      <c r="C21" t="s">
+        <v>803</v>
+      </c>
+      <c r="D21" t="s">
+        <v>804</v>
+      </c>
+      <c r="E21" t="s">
+        <v>251</v>
+      </c>
+      <c r="F21" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>646</v>
+      </c>
+      <c r="B22" t="s">
+        <v>651</v>
+      </c>
+      <c r="C22" t="s">
+        <v>805</v>
+      </c>
+      <c r="D22" t="s">
+        <v>806</v>
+      </c>
+      <c r="E22" t="s">
+        <v>251</v>
+      </c>
+      <c r="F22" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>648</v>
+      </c>
+      <c r="B23" t="s">
+        <v>653</v>
+      </c>
+      <c r="C23" t="s">
+        <v>801</v>
+      </c>
+      <c r="D23" t="s">
+        <v>802</v>
+      </c>
+      <c r="E23" t="s">
+        <v>251</v>
+      </c>
+      <c r="F23" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>647</v>
+      </c>
+      <c r="B24" t="s">
+        <v>652</v>
+      </c>
+      <c r="C24" t="s">
+        <v>799</v>
+      </c>
+      <c r="D24" t="s">
+        <v>800</v>
+      </c>
+      <c r="E24" t="s">
+        <v>251</v>
+      </c>
+      <c r="F24" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>649</v>
+      </c>
+      <c r="B25" t="s">
+        <v>654</v>
+      </c>
+      <c r="C25" t="s">
+        <v>796</v>
+      </c>
+      <c r="D25" t="s">
+        <v>797</v>
+      </c>
+      <c r="E25" t="s">
+        <v>251</v>
+      </c>
+      <c r="F25" t="s">
+        <v>798</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{31EAF8A3-E659-4538-97F0-CAE30590E5F4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D482266D-B90F-4B77-ADCD-DBA0EB5AE431}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -7005,7 +7341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B160D41-22A7-4DDD-97BB-D99E5654BA01}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -7408,7 +7744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414B5370-5029-483B-916B-4E563C4D6F93}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -7596,7 +7932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DE01A5-2C8B-4355-8451-CE73E53961BB}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
@@ -7842,7 +8178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4692B37E-0216-4972-A110-E1B81B06E6C4}">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF92D050"/>
@@ -8832,7 +9168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED88715B-2C1F-4B02-9C56-197D358D7FB4}">
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF92D050"/>
@@ -9471,7 +9807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6A7684-571C-4EED-95D8-7F34A7B49B6B}">
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF92D050"/>
@@ -9764,7 +10100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6188AC2A-13AA-44F7-B850-44BEE776D85D}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -9997,7 +10333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F4AAFC-C1A9-47B3-B848-06156D11375D}">
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF92D050"/>
@@ -10143,129 +10479,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{6A6AC814-7C90-4191-A528-433864BBC41A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EE12FB-03D5-4E75-92F5-3C993AAF3A5A}">
-  <sheetPr codeName="Sheet7">
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="47.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{9158315F-F870-4522-9EAB-0B4FA008B9BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10587,6 +10800,129 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EE12FB-03D5-4E75-92F5-3C993AAF3A5A}">
+  <sheetPr codeName="Sheet7">
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{9158315F-F870-4522-9EAB-0B4FA008B9BA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C6162D-ED52-4421-8B7E-2C58681ADE6F}">
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF92D050"/>
@@ -10733,7 +11069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208BBAD8-8992-4A11-B32C-5E8E74095072}">
   <sheetPr codeName="Sheet9" filterMode="1">
     <tabColor rgb="FF92D050"/>
@@ -12869,7 +13205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700E1104-0B81-46DF-BF55-20A13EF92D67}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5"/>
@@ -13019,7 +13355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604C20EA-1202-4F32-9A03-50C03C9141BD}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="5"/>
@@ -13125,7 +13461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6364318-D354-4A54-B885-C4D13BCF1553}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="5"/>
@@ -13334,7 +13670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AB462C-E7DD-41D5-B1F6-0B76A79BD546}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="5"/>
@@ -13473,7 +13809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DA0612-5B2C-41D1-B114-8D7F9449CFCB}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -13664,7 +14000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4B8566-925A-4EBE-8FA2-F566554280EF}">
   <sheetPr codeName="Sheet14">
     <tabColor theme="5"/>
@@ -14060,7 +14396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8162057B-52FF-4F06-A9FE-C8E0168242E3}">
   <sheetPr codeName="Sheet15">
     <tabColor rgb="FF92D050"/>
@@ -14201,236 +14537,6 @@
     <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{58E158FA-F610-4D72-A1CB-B39453ED1156}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DCD494-48E9-4641-90F2-206CAB2F7041}">
-  <sheetPr codeName="Sheet16">
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>271</v>
-      </c>
-      <c r="B10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>266</v>
-      </c>
-      <c r="E10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>266</v>
-      </c>
-      <c r="E11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>356</v>
-      </c>
-      <c r="B12" t="s">
-        <v>358</v>
-      </c>
-      <c r="C12" t="s">
-        <v>359</v>
-      </c>
-      <c r="D12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14933,6 +15039,236 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DCD494-48E9-4641-90F2-206CAB2F7041}">
+  <sheetPr codeName="Sheet16">
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12" t="s">
+        <v>357</v>
+      </c>
+      <c r="E12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D72A9D9-D447-4A21-A49D-88C8132B73CE}">
   <sheetPr codeName="Sheet17">
     <tabColor theme="5"/>
@@ -15138,7 +15474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F5A9AB-486E-4615-848C-03E69B3477F9}">
   <sheetPr codeName="Sheet18">
     <tabColor theme="5"/>
@@ -15351,7 +15687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699F63E1-0070-48F6-AF52-8BCBFD9B07EF}">
   <sheetPr codeName="Sheet19">
     <tabColor theme="5"/>
@@ -15515,7 +15851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783D1FEC-B865-44FA-820C-57E3FB6789F2}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:B7"/>
@@ -15594,7 +15930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8864CB40-A73B-4F10-9198-5C94E25214F3}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -15773,7 +16109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81503B49-E101-4423-8FFF-B866835D92EC}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:B5"/>
@@ -15833,7 +16169,105 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50FF732-6CB7-4C54-BB6D-389CA5D69A47}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="102.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCEF9F3-3285-454F-A311-2FAE775A4BE5}">
   <sheetPr codeName="Sheet22">
     <tabColor rgb="FF92D050"/>
@@ -16305,8 +16739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0C9BC5-E2CE-4417-A398-52D4FBA952C1}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16713,6 +17147,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C96B0B-507A-4FE9-8218-A9DE658B2A48}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228A5EA1-7578-437E-943F-B5DA9932AB71}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -17038,308 +17484,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId23"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A529B9-903C-45A2-901F-9D341955071D}">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="89.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>949</v>
-      </c>
-      <c r="B2" t="s">
-        <v>756</v>
-      </c>
-      <c r="C2" t="s">
-        <v>950</v>
-      </c>
-      <c r="D2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>951</v>
-      </c>
-      <c r="B3" t="s">
-        <v>726</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>952</v>
-      </c>
-      <c r="D3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>953</v>
-      </c>
-      <c r="B4" t="s">
-        <v>954</v>
-      </c>
-      <c r="C4" t="s">
-        <v>955</v>
-      </c>
-      <c r="D4" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>956</v>
-      </c>
-      <c r="B5" t="s">
-        <v>957</v>
-      </c>
-      <c r="C5" t="s">
-        <v>741</v>
-      </c>
-      <c r="D5" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>958</v>
-      </c>
-      <c r="B6" t="s">
-        <v>959</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>741</v>
-      </c>
-      <c r="D6" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>960</v>
-      </c>
-      <c r="B7" t="s">
-        <v>961</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>962</v>
-      </c>
-      <c r="D7" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>963</v>
-      </c>
-      <c r="B8" t="s">
-        <v>964</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>962</v>
-      </c>
-      <c r="D8" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>965</v>
-      </c>
-      <c r="B9" t="s">
-        <v>966</v>
-      </c>
-      <c r="C9" t="s">
-        <v>967</v>
-      </c>
-      <c r="D9" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>968</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>969</v>
-      </c>
-      <c r="D10" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>970</v>
-      </c>
-      <c r="B11" t="s">
-        <v>971</v>
-      </c>
-      <c r="C11" t="s">
-        <v>972</v>
-      </c>
-      <c r="D11" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>973</v>
-      </c>
-      <c r="B12" t="s">
-        <v>974</v>
-      </c>
-      <c r="C12" t="s">
-        <v>974</v>
-      </c>
-      <c r="D12" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>975</v>
-      </c>
-      <c r="B13" t="s">
-        <v>976</v>
-      </c>
-      <c r="C13" t="s">
-        <v>972</v>
-      </c>
-      <c r="D13" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>977</v>
-      </c>
-      <c r="B14" t="s">
-        <v>978</v>
-      </c>
-      <c r="C14" t="s">
-        <v>979</v>
-      </c>
-      <c r="D14" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B15" t="s">
-        <v>980</v>
-      </c>
-      <c r="C15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>981</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>962</v>
-      </c>
-      <c r="D16" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>982</v>
-      </c>
-      <c r="B17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" t="s">
-        <v>983</v>
-      </c>
-      <c r="D17" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>984</v>
-      </c>
-      <c r="B18" t="s">
-        <v>985</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>979</v>
-      </c>
-      <c r="D18" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>986</v>
-      </c>
-      <c r="B19" t="s">
-        <v>987</v>
-      </c>
-      <c r="C19" t="s">
-        <v>987</v>
-      </c>
-      <c r="D19" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>988</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>987</v>
-      </c>
-      <c r="D20" t="s">
-        <v>717</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{0BDD38D8-2559-4808-96F6-AF1B036AFB43}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>